--- a/selenium/test/data/TNOQ-5177/Round1/Reversal_API_Single_Bene_With_Charges_No_Adjustment_Multi_Refund.xlsx
+++ b/selenium/test/data/TNOQ-5177/Round1/Reversal_API_Single_Bene_With_Charges_No_Adjustment_Multi_Refund.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Akshay\Workspace\Python\Clone\selenium\selenium\test\data\TNOQ-5177\Round1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="10830" windowWidth="16335" xWindow="480" yWindow="90"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="16335" windowHeight="10830"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Payments" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Refunds" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Payments" sheetId="1" r:id="rId1"/>
+    <sheet name="Refunds" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" calcOnSave="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="96">
   <si>
     <t>Type</t>
   </si>
@@ -122,7 +127,7 @@
     <t>None</t>
   </si>
   <si>
-    <t>8127812</t>
+    <t>8127819</t>
   </si>
   <si>
     <t>ECA</t>
@@ -137,10 +142,10 @@
     <t>Testng 1</t>
   </si>
   <si>
-    <t>00000000006685444</t>
-  </si>
-  <si>
-    <t>&lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;&lt;EPGMerchantServices&gt;&lt;Header&gt;&lt;SrvType&gt;NPAY&lt;/SrvType&gt;&lt;SrcApp&gt;Normal Pay&lt;/SrcApp&gt;&lt;TargetApp&gt;RDC - Deposit UAT - RDC - Deposit UAT&lt;/TargetApp&gt;&lt;Timestamp&gt;19/03/2018 16:22:45&lt;/Timestamp&gt;&lt;SrcMsgId&gt;8127812&lt;/SrcMsgId&gt;&lt;/Header&gt;&lt;Body&gt;&lt;SrvRes&gt;&lt;ExceptionDetails&gt;&lt;DateTime&gt;19/03/2018 16:22:45&lt;/DateTime&gt;&lt;Status&gt;S&lt;/Status&gt;&lt;ErrorCode&gt;EPG-PMT-000&lt;/ErrorCode&gt;&lt;ErrorDescription&gt;Success&lt;/ErrorDescription&gt;&lt;Trace&gt;00000000006685444&lt;/Trace&gt;&lt;TransactionRefNo&gt;00000000006685444&lt;/TransactionRefNo&gt;&lt;/ExceptionDetails&gt;&lt;NormalPayRes&gt;&lt;Transfer&gt;&lt;TransactionRefNo&gt;00000000006685444&lt;/TransactionRefNo&gt;&lt;AuthCode&gt;3A5AE576CFD6F4E4C2A5CF092D06EB97&lt;/AuthCode&gt;&lt;TranStatus&gt;S&lt;/TranStatus&gt;&lt;OrderID&gt;8127812&lt;/OrderID&gt;&lt;PaymentMode&gt;ECA&lt;/PaymentMode&gt;&lt;CreditAmount&gt;15000.00&lt;/CreditAmount&gt;&lt;CreditCurrency&gt;AED&lt;/CreditCurrency&gt;&lt;/Transfer&gt;&lt;Filler1&gt;&lt;/Filler1&gt;&lt;Filler2&gt;&lt;/Filler2&gt;&lt;Filler3&gt;&lt;/Filler3&gt;&lt;Filler4&gt;&lt;/Filler4&gt;&lt;Filler5&gt;&lt;/Filler5&gt;&lt;/NormalPayRes&gt;&lt;/SrvRes&gt;&lt;/Body&gt;&lt;/EPGMerchantServices&gt;</t>
+    <t>00000000006685474</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;&lt;EPGMerchantServices&gt;&lt;Header&gt;&lt;SrvType&gt;NPAY&lt;/SrvType&gt;&lt;SrcApp&gt;Normal Pay&lt;/SrcApp&gt;&lt;TargetApp&gt;RDC - Deposit UAT - RDC - Deposit UAT&lt;/TargetApp&gt;&lt;Timestamp&gt;20/03/2018 09:05:20&lt;/Timestamp&gt;&lt;SrcMsgId&gt;8127819&lt;/SrcMsgId&gt;&lt;/Header&gt;&lt;Body&gt;&lt;SrvRes&gt;&lt;ExceptionDetails&gt;&lt;DateTime&gt;20/03/2018 09:05:20&lt;/DateTime&gt;&lt;Status&gt;S&lt;/Status&gt;&lt;ErrorCode&gt;EPG-PMT-000&lt;/ErrorCode&gt;&lt;ErrorDescription&gt;Success&lt;/ErrorDescription&gt;&lt;Trace&gt;00000000006685474&lt;/Trace&gt;&lt;TransactionRefNo&gt;00000000006685474&lt;/TransactionRefNo&gt;&lt;/ExceptionDetails&gt;&lt;NormalPayRes&gt;&lt;Transfer&gt;&lt;TransactionRefNo&gt;00000000006685474&lt;/TransactionRefNo&gt;&lt;AuthCode&gt;8BBA55C9BB119DAA27780F5ACEE6BCC9&lt;/AuthCode&gt;&lt;TranStatus&gt;S&lt;/TranStatus&gt;&lt;OrderID&gt;8127819&lt;/OrderID&gt;&lt;PaymentMode&gt;ECA&lt;/PaymentMode&gt;&lt;CreditAmount&gt;15000.00&lt;/CreditAmount&gt;&lt;CreditCurrency&gt;AED&lt;/CreditCurrency&gt;&lt;/Transfer&gt;&lt;Filler1&gt;&lt;/Filler1&gt;&lt;Filler2&gt;&lt;/Filler2&gt;&lt;Filler3&gt;&lt;/Filler3&gt;&lt;Filler4&gt;&lt;/Filler4&gt;&lt;Filler5&gt;&lt;/Filler5&gt;&lt;/NormalPayRes&gt;&lt;/SrvRes&gt;&lt;/Body&gt;&lt;/EPGMerchantServices&gt;</t>
   </si>
   <si>
     <t>EPG-PMT-000</t>
@@ -152,7 +157,7 @@
     <t>10000</t>
   </si>
   <si>
-    <t>8127813</t>
+    <t>8127820</t>
   </si>
   <si>
     <t>CCDUNREG</t>
@@ -179,10 +184,10 @@
     <t>akshay.zaveri@emaratech.ae</t>
   </si>
   <si>
-    <t>00000000006685446</t>
-  </si>
-  <si>
-    <t>&lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;&lt;EPGMerchantServices&gt;&lt;Header&gt;&lt;SrvType&gt;NPAY&lt;/SrvType&gt;&lt;SrcApp&gt;Normal Pay&lt;/SrcApp&gt;&lt;TargetApp&gt;RDC - Deposit UAT - RDC - Deposit UAT&lt;/TargetApp&gt;&lt;Timestamp&gt;19/03/2018 16:23:44&lt;/Timestamp&gt;&lt;SrcMsgId&gt;8127813&lt;/SrcMsgId&gt;&lt;/Header&gt;&lt;Body&gt;&lt;SrvRes&gt;&lt;ExceptionDetails&gt;&lt;DateTime&gt;19/03/2018 16:23:44&lt;/DateTime&gt;&lt;Status&gt;S&lt;/Status&gt;&lt;ErrorCode&gt;EPG-PMT-000&lt;/ErrorCode&gt;&lt;ErrorDescription&gt;Success&lt;/ErrorDescription&gt;&lt;Trace&gt;00000000006685446&lt;/Trace&gt;&lt;TransactionRefNo&gt;00000000006685446&lt;/TransactionRefNo&gt;&lt;/ExceptionDetails&gt;&lt;NormalPayRes&gt;&lt;Transfer&gt;&lt;TransactionRefNo&gt;00000000006685446&lt;/TransactionRefNo&gt;&lt;AuthCode&gt;EA634617BBEDA69002B58E1928C22FDF&lt;/AuthCode&gt;&lt;TranStatus&gt;S&lt;/TranStatus&gt;&lt;OrderID&gt;8127813&lt;/OrderID&gt;&lt;PaymentMode&gt;CCD&lt;/PaymentMode&gt;&lt;CreditAmount&gt;10000.00&lt;/CreditAmount&gt;&lt;CreditCurrency&gt;AED&lt;/CreditCurrency&gt;&lt;PaymentRefNo&gt;2000001830&lt;/PaymentRefNo&gt;&lt;PayAuthCode&gt;807823599494&lt;/PayAuthCode&gt;&lt;/Transfer&gt;&lt;Filler1&gt;&lt;/Filler1&gt;&lt;Filler2&gt;&lt;/Filler2&gt;&lt;Filler3&gt;&lt;/Filler3&gt;&lt;Filler4&gt;&lt;/Filler4&gt;&lt;Filler5&gt;&lt;/Filler5&gt;&lt;/NormalPayRes&gt;&lt;/SrvRes&gt;&lt;/Body&gt;&lt;/EPGMerchantServices&gt;</t>
+    <t>00000000006685476</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;&lt;EPGMerchantServices&gt;&lt;Header&gt;&lt;SrvType&gt;NPAY&lt;/SrvType&gt;&lt;SrcApp&gt;Normal Pay&lt;/SrcApp&gt;&lt;TargetApp&gt;RDC - Deposit UAT - RDC - Deposit UAT&lt;/TargetApp&gt;&lt;Timestamp&gt;20/03/2018 09:06:25&lt;/Timestamp&gt;&lt;SrcMsgId&gt;8127820&lt;/SrcMsgId&gt;&lt;/Header&gt;&lt;Body&gt;&lt;SrvRes&gt;&lt;ExceptionDetails&gt;&lt;DateTime&gt;20/03/2018 09:06:25&lt;/DateTime&gt;&lt;Status&gt;S&lt;/Status&gt;&lt;ErrorCode&gt;EPG-PMT-000&lt;/ErrorCode&gt;&lt;ErrorDescription&gt;Success&lt;/ErrorDescription&gt;&lt;Trace&gt;00000000006685476&lt;/Trace&gt;&lt;TransactionRefNo&gt;00000000006685476&lt;/TransactionRefNo&gt;&lt;/ExceptionDetails&gt;&lt;NormalPayRes&gt;&lt;Transfer&gt;&lt;TransactionRefNo&gt;00000000006685476&lt;/TransactionRefNo&gt;&lt;AuthCode&gt;F11FC0F5BE60759E9E5F356861B4BE77&lt;/AuthCode&gt;&lt;TranStatus&gt;S&lt;/TranStatus&gt;&lt;OrderID&gt;8127820&lt;/OrderID&gt;&lt;PaymentMode&gt;CCD&lt;/PaymentMode&gt;&lt;CreditAmount&gt;10000.00&lt;/CreditAmount&gt;&lt;CreditCurrency&gt;AED&lt;/CreditCurrency&gt;&lt;PaymentRefNo&gt;1100001485&lt;/PaymentRefNo&gt;&lt;PayAuthCode&gt;807916032369&lt;/PayAuthCode&gt;&lt;/Transfer&gt;&lt;Filler1&gt;&lt;/Filler1&gt;&lt;Filler2&gt;&lt;/Filler2&gt;&lt;Filler3&gt;&lt;/Filler3&gt;&lt;Filler4&gt;&lt;/Filler4&gt;&lt;Filler5&gt;&lt;/Filler5&gt;&lt;/NormalPayRes&gt;&lt;/SrvRes&gt;&lt;/Body&gt;&lt;/EPGMerchantServices&gt;</t>
   </si>
   <si>
     <t>3</t>
@@ -191,13 +196,13 @@
     <t>41.59</t>
   </si>
   <si>
-    <t>8127814</t>
-  </si>
-  <si>
-    <t>00000000006685447</t>
-  </si>
-  <si>
-    <t>&lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;&lt;EPGMerchantServices&gt;&lt;Header&gt;&lt;SrvType&gt;NPAY&lt;/SrvType&gt;&lt;SrcApp&gt;Normal Pay&lt;/SrcApp&gt;&lt;TargetApp&gt;RDC - Deposit UAT - RDC - Deposit UAT&lt;/TargetApp&gt;&lt;Timestamp&gt;19/03/2018 16:24:13&lt;/Timestamp&gt;&lt;SrcMsgId&gt;8127814&lt;/SrcMsgId&gt;&lt;/Header&gt;&lt;Body&gt;&lt;SrvRes&gt;&lt;ExceptionDetails&gt;&lt;DateTime&gt;19/03/2018 16:24:13&lt;/DateTime&gt;&lt;Status&gt;S&lt;/Status&gt;&lt;ErrorCode&gt;EPG-PMT-000&lt;/ErrorCode&gt;&lt;ErrorDescription&gt;Success&lt;/ErrorDescription&gt;&lt;Trace&gt;00000000006685447&lt;/Trace&gt;&lt;TransactionRefNo&gt;00000000006685447&lt;/TransactionRefNo&gt;&lt;/ExceptionDetails&gt;&lt;NormalPayRes&gt;&lt;Transfer&gt;&lt;TransactionRefNo&gt;00000000006685447&lt;/TransactionRefNo&gt;&lt;AuthCode&gt;7D9CC1B699EC1C419426204B5268EF5C&lt;/AuthCode&gt;&lt;TranStatus&gt;S&lt;/TranStatus&gt;&lt;OrderID&gt;8127814&lt;/OrderID&gt;&lt;PaymentMode&gt;ECA&lt;/PaymentMode&gt;&lt;CreditAmount&gt;41.59&lt;/CreditAmount&gt;&lt;CreditCurrency&gt;AED&lt;/CreditCurrency&gt;&lt;/Transfer&gt;&lt;Filler1&gt;&lt;/Filler1&gt;&lt;Filler2&gt;&lt;/Filler2&gt;&lt;Filler3&gt;&lt;/Filler3&gt;&lt;Filler4&gt;&lt;/Filler4&gt;&lt;Filler5&gt;&lt;/Filler5&gt;&lt;/NormalPayRes&gt;&lt;/SrvRes&gt;&lt;/Body&gt;&lt;/EPGMerchantServices&gt;</t>
+    <t>8127821</t>
+  </si>
+  <si>
+    <t>00000000006685477</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;&lt;EPGMerchantServices&gt;&lt;Header&gt;&lt;SrvType&gt;NPAY&lt;/SrvType&gt;&lt;SrcApp&gt;Normal Pay&lt;/SrcApp&gt;&lt;TargetApp&gt;RDC - Deposit UAT - RDC - Deposit UAT&lt;/TargetApp&gt;&lt;Timestamp&gt;20/03/2018 09:07:09&lt;/Timestamp&gt;&lt;SrcMsgId&gt;8127821&lt;/SrcMsgId&gt;&lt;/Header&gt;&lt;Body&gt;&lt;SrvRes&gt;&lt;ExceptionDetails&gt;&lt;DateTime&gt;20/03/2018 09:07:09&lt;/DateTime&gt;&lt;Status&gt;S&lt;/Status&gt;&lt;ErrorCode&gt;EPG-PMT-000&lt;/ErrorCode&gt;&lt;ErrorDescription&gt;Success&lt;/ErrorDescription&gt;&lt;Trace&gt;00000000006685477&lt;/Trace&gt;&lt;TransactionRefNo&gt;00000000006685477&lt;/TransactionRefNo&gt;&lt;/ExceptionDetails&gt;&lt;NormalPayRes&gt;&lt;Transfer&gt;&lt;TransactionRefNo&gt;00000000006685477&lt;/TransactionRefNo&gt;&lt;AuthCode&gt;97E57618EA2CF893B5F321622C5ABBD4&lt;/AuthCode&gt;&lt;TranStatus&gt;S&lt;/TranStatus&gt;&lt;OrderID&gt;8127821&lt;/OrderID&gt;&lt;PaymentMode&gt;ECA&lt;/PaymentMode&gt;&lt;CreditAmount&gt;41.59&lt;/CreditAmount&gt;&lt;CreditCurrency&gt;AED&lt;/CreditCurrency&gt;&lt;/Transfer&gt;&lt;Filler1&gt;&lt;/Filler1&gt;&lt;Filler2&gt;&lt;/Filler2&gt;&lt;Filler3&gt;&lt;/Filler3&gt;&lt;Filler4&gt;&lt;/Filler4&gt;&lt;Filler5&gt;&lt;/Filler5&gt;&lt;/NormalPayRes&gt;&lt;/SrvRes&gt;&lt;/Body&gt;&lt;/EPGMerchantServices&gt;</t>
   </si>
   <si>
     <t>paymentSequence</t>
@@ -248,62 +253,100 @@
     <t>AE123456789012345678901</t>
   </si>
   <si>
+    <t>6685478</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;&lt;EPGMerchantServices&gt;&lt;Header&gt;&lt;SrvType&gt;REVERSETXN&lt;/SrvType&gt;&lt;SrcApp&gt;Reversal Transaction&lt;/SrcApp&gt;&lt;TargetApp&gt;&lt;/TargetApp&gt;&lt;Timestamp&gt;20/03/2018 09:08:16&lt;/Timestamp&gt;&lt;SrcMsgId&gt;8127819&lt;/SrcMsgId&gt;&lt;/Header&gt;&lt;Body&gt;&lt;SrvRes&gt;&lt;ExceptionDetails&gt;&lt;DateTime&gt;20/03/2018 09:08:16&lt;/DateTime&gt;&lt;Status&gt;S&lt;/Status&gt;&lt;ErrorCode&gt;EPG-REV-000&lt;/ErrorCode&gt;&lt;ErrorDescription&gt;Successfull&lt;/ErrorDescription&gt;&lt;Trace&gt;6685474&lt;/Trace&gt;&lt;TransactionRefNo&gt;6685478&lt;/TransactionRefNo&gt;&lt;/ExceptionDetails&gt;&lt;TxnReversalRes&gt;&lt;Transfer&gt;&lt;EPGTransactionID&gt;6685474&lt;/EPGTransactionID&gt;&lt;NoqodiRevRefNo&gt;6685478&lt;/NoqodiRevRefNo&gt;&lt;RevAmount&gt;1000.00&lt;/RevAmount&gt;&lt;RevCurrency&gt;AED&lt;/RevCurrency&gt;&lt;RevCharges&gt;19.80&lt;/RevCharges&gt;&lt;RevStatus&gt;S&lt;/RevStatus&gt;&lt;RevErrorCode&gt;EPG-REV-000&lt;/RevErrorCode&gt;&lt;RevErrorDesc&gt;Successfull&lt;/RevErrorDesc&gt;&lt;/Transfer&gt;&lt;/TxnReversalRes&gt;&lt;/SrvRes&gt;&lt;/Body&gt;&lt;/EPGMerchantServices&gt;</t>
+  </si>
+  <si>
+    <t>EPG-REV-000</t>
+  </si>
+  <si>
+    <t>6685479</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;&lt;EPGMerchantServices&gt;&lt;Header&gt;&lt;SrvType&gt;REVERSETXN&lt;/SrvType&gt;&lt;SrcApp&gt;Reversal Transaction&lt;/SrcApp&gt;&lt;TargetApp&gt;&lt;/TargetApp&gt;&lt;Timestamp&gt;20/03/2018 09:09:19&lt;/Timestamp&gt;&lt;SrcMsgId&gt;8127819&lt;/SrcMsgId&gt;&lt;/Header&gt;&lt;Body&gt;&lt;SrvRes&gt;&lt;ExceptionDetails&gt;&lt;DateTime&gt;20/03/2018 09:09:19&lt;/DateTime&gt;&lt;Status&gt;S&lt;/Status&gt;&lt;ErrorCode&gt;EPG-REV-000&lt;/ErrorCode&gt;&lt;ErrorDescription&gt;Successfull&lt;/ErrorDescription&gt;&lt;Trace&gt;6685474&lt;/Trace&gt;&lt;TransactionRefNo&gt;6685479&lt;/TransactionRefNo&gt;&lt;/ExceptionDetails&gt;&lt;TxnReversalRes&gt;&lt;Transfer&gt;&lt;EPGTransactionID&gt;6685474&lt;/EPGTransactionID&gt;&lt;NoqodiRevRefNo&gt;6685479&lt;/NoqodiRevRefNo&gt;&lt;RevAmount&gt;1000.00&lt;/RevAmount&gt;&lt;RevCurrency&gt;AED&lt;/RevCurrency&gt;&lt;RevCharges&gt;19.80&lt;/RevCharges&gt;&lt;RevStatus&gt;S&lt;/RevStatus&gt;&lt;RevErrorCode&gt;EPG-REV-000&lt;/RevErrorCode&gt;&lt;RevErrorDesc&gt;Successfull&lt;/RevErrorDesc&gt;&lt;/Transfer&gt;&lt;/TxnReversalRes&gt;&lt;/SrvRes&gt;&lt;/Body&gt;&lt;/EPGMerchantServices&gt;</t>
+  </si>
+  <si>
     <t>2000.79</t>
   </si>
   <si>
+    <t>6685480</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;&lt;EPGMerchantServices&gt;&lt;Header&gt;&lt;SrvType&gt;REVERSETXN&lt;/SrvType&gt;&lt;SrcApp&gt;Reversal Transaction&lt;/SrcApp&gt;&lt;TargetApp&gt;&lt;/TargetApp&gt;&lt;Timestamp&gt;20/03/2018 09:10:32&lt;/Timestamp&gt;&lt;SrcMsgId&gt;8127820&lt;/SrcMsgId&gt;&lt;/Header&gt;&lt;Body&gt;&lt;SrvRes&gt;&lt;ExceptionDetails&gt;&lt;DateTime&gt;20/03/2018 09:10:32&lt;/DateTime&gt;&lt;Status&gt;S&lt;/Status&gt;&lt;ErrorCode&gt;EPG-REV-000&lt;/ErrorCode&gt;&lt;ErrorDescription&gt;Successfull&lt;/ErrorDescription&gt;&lt;Trace&gt;6685476&lt;/Trace&gt;&lt;TransactionRefNo&gt;6685480&lt;/TransactionRefNo&gt;&lt;/ExceptionDetails&gt;&lt;TxnReversalRes&gt;&lt;Transfer&gt;&lt;EPGTransactionID&gt;6685476&lt;/EPGTransactionID&gt;&lt;NoqodiRevRefNo&gt;6685480&lt;/NoqodiRevRefNo&gt;&lt;RevAmount&gt;2000.79&lt;/RevAmount&gt;&lt;RevCurrency&gt;AED&lt;/RevCurrency&gt;&lt;RevCharges&gt;19.80&lt;/RevCharges&gt;&lt;RevStatus&gt;S&lt;/RevStatus&gt;&lt;RevErrorCode&gt;EPG-REV-000&lt;/RevErrorCode&gt;&lt;RevErrorDesc&gt;Successfull&lt;/RevErrorDesc&gt;&lt;/Transfer&gt;&lt;/TxnReversalRes&gt;&lt;/SrvRes&gt;&lt;/Body&gt;&lt;/EPGMerchantServices&gt;</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
+    <t>6685481</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;&lt;EPGMerchantServices&gt;&lt;Header&gt;&lt;SrvType&gt;REVERSETXN&lt;/SrvType&gt;&lt;SrcApp&gt;Reversal Transaction&lt;/SrcApp&gt;&lt;TargetApp&gt;&lt;/TargetApp&gt;&lt;Timestamp&gt;20/03/2018 09:11:53&lt;/Timestamp&gt;&lt;SrcMsgId&gt;8127820&lt;/SrcMsgId&gt;&lt;/Header&gt;&lt;Body&gt;&lt;SrvRes&gt;&lt;ExceptionDetails&gt;&lt;DateTime&gt;20/03/2018 09:11:53&lt;/DateTime&gt;&lt;Status&gt;S&lt;/Status&gt;&lt;ErrorCode&gt;EPG-REV-000&lt;/ErrorCode&gt;&lt;ErrorDescription&gt;Successfull&lt;/ErrorDescription&gt;&lt;Trace&gt;6685476&lt;/Trace&gt;&lt;TransactionRefNo&gt;6685481&lt;/TransactionRefNo&gt;&lt;/ExceptionDetails&gt;&lt;TxnReversalRes&gt;&lt;Transfer&gt;&lt;EPGTransactionID&gt;6685476&lt;/EPGTransactionID&gt;&lt;NoqodiRevRefNo&gt;6685481&lt;/NoqodiRevRefNo&gt;&lt;RevAmount&gt;2000.79&lt;/RevAmount&gt;&lt;RevCurrency&gt;AED&lt;/RevCurrency&gt;&lt;RevCharges&gt;19.80&lt;/RevCharges&gt;&lt;RevStatus&gt;S&lt;/RevStatus&gt;&lt;RevErrorCode&gt;EPG-REV-000&lt;/RevErrorCode&gt;&lt;RevErrorDesc&gt;Successfull&lt;/RevErrorDesc&gt;&lt;/Transfer&gt;&lt;/TxnReversalRes&gt;&lt;/SrvRes&gt;&lt;/Body&gt;&lt;/EPGMerchantServices&gt;</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
     <t>20.80</t>
   </si>
   <si>
+    <t>6685482</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;&lt;EPGMerchantServices&gt;&lt;Header&gt;&lt;SrvType&gt;REVERSETXN&lt;/SrvType&gt;&lt;SrcApp&gt;Reversal Transaction&lt;/SrcApp&gt;&lt;TargetApp&gt;&lt;/TargetApp&gt;&lt;Timestamp&gt;20/03/2018 09:13:59&lt;/Timestamp&gt;&lt;SrcMsgId&gt;8127821&lt;/SrcMsgId&gt;&lt;/Header&gt;&lt;Body&gt;&lt;SrvRes&gt;&lt;ExceptionDetails&gt;&lt;DateTime&gt;20/03/2018 09:13:59&lt;/DateTime&gt;&lt;Status&gt;S&lt;/Status&gt;&lt;ErrorCode&gt;EPG-REV-000&lt;/ErrorCode&gt;&lt;ErrorDescription&gt;Successfull&lt;/ErrorDescription&gt;&lt;Trace&gt;6685477&lt;/Trace&gt;&lt;TransactionRefNo&gt;6685482&lt;/TransactionRefNo&gt;&lt;/ExceptionDetails&gt;&lt;TxnReversalRes&gt;&lt;Transfer&gt;&lt;EPGTransactionID&gt;6685477&lt;/EPGTransactionID&gt;&lt;NoqodiRevRefNo&gt;6685482&lt;/NoqodiRevRefNo&gt;&lt;RevAmount&gt;20.80&lt;/RevAmount&gt;&lt;RevCurrency&gt;AED&lt;/RevCurrency&gt;&lt;RevCharges&gt;19.80&lt;/RevCharges&gt;&lt;RevStatus&gt;S&lt;/RevStatus&gt;&lt;RevErrorCode&gt;EPG-REV-000&lt;/RevErrorCode&gt;&lt;RevErrorDesc&gt;Successfull&lt;/RevErrorDesc&gt;&lt;/Transfer&gt;&lt;/TxnReversalRes&gt;&lt;/SrvRes&gt;&lt;/Body&gt;&lt;/EPGMerchantServices&gt;</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
     <t>20.79</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;&lt;EPGMerchantServices&gt;&lt;Header&gt;&lt;SrvType&gt;REVERSETXN&lt;/SrvType&gt;&lt;SrcApp&gt;Reversal Transaction&lt;/SrcApp&gt;&lt;TargetApp&gt;&lt;/TargetApp&gt;&lt;Timestamp&gt;20/03/2018 09:16:08&lt;/Timestamp&gt;&lt;SrcMsgId&gt;8127821&lt;/SrcMsgId&gt;&lt;/Header&gt;&lt;Body&gt;&lt;SrvRes&gt;&lt;ExceptionDetails&gt;&lt;DateTime&gt;20/03/2018 09:16:08&lt;/DateTime&gt;&lt;Status&gt;F&lt;/Status&gt;&lt;ErrorCode&gt;ERR_REFUND_AMOUNT&lt;/ErrorCode&gt;&lt;ErrorDescription&gt;Amount requested for refund is incorrect&lt;/ErrorDescription&gt;&lt;Trace&gt;00000000006685477&lt;/Trace&gt;&lt;/ExceptionDetails&gt;&lt;TxnReversalRes/&gt;&lt;/SrvRes&gt;&lt;/Body&gt;&lt;/EPGMerchantServices&gt;</t>
+  </si>
+  <si>
+    <t>ERR_REFUND_AMOUNT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <charset val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <charset val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <charset val="1"/>
-      <color theme="10"/>
-      <sz val="10"/>
-      <u val="single"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="10"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -319,24 +362,33 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -636,28 +688,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="16"/>
-    <col customWidth="1" max="5" min="5" width="13.140625"/>
-    <col customWidth="1" max="8" min="8" width="12.28515625"/>
-    <col customWidth="1" max="10" min="10" width="10.5703125"/>
-    <col customWidth="1" max="11" min="11" width="14.7109375"/>
-    <col customWidth="1" max="15" min="15" width="10.85546875"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -743,7 +791,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -829,7 +877,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -915,7 +963,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -1003,39 +1051,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O2" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O4" r:id="rId2"/>
+    <hyperlink ref="O2" r:id="rId1"/>
+    <hyperlink ref="O4" r:id="rId2"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5:R5"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P2:P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="4" min="4" width="17.85546875"/>
-    <col customWidth="1" max="5" min="5" width="14"/>
-    <col customWidth="1" max="7" min="6" width="12.28515625"/>
-    <col customWidth="1" max="10" min="8" width="14.85546875"/>
-    <col customWidth="1" max="11" min="11" width="12.42578125"/>
-    <col customWidth="1" max="12" min="12" width="12.7109375"/>
-    <col customWidth="1" max="15" min="15" width="25"/>
-    <col customWidth="1" max="17" min="17" width="20.28515625"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" customWidth="1"/>
+    <col min="8" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1"/>
+    <col min="15" max="15" width="25" customWidth="1"/>
+    <col min="17" max="17" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1091,7 +1136,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>72</v>
       </c>
@@ -1138,16 +1183,16 @@
         <v>76</v>
       </c>
       <c r="P2" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="Q2" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="R2" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>72</v>
       </c>
@@ -1194,16 +1239,16 @@
         <v>76</v>
       </c>
       <c r="P3" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="Q3" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="R3" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -1226,7 +1271,7 @@
         <v>54</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I4" t="s">
         <v>33</v>
@@ -1250,21 +1295,21 @@
         <v>76</v>
       </c>
       <c r="P4" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="Q4" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="R4" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>72</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
         <v>33</v>
@@ -1282,7 +1327,7 @@
         <v>54</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I5" t="s">
         <v>33</v>
@@ -1306,21 +1351,21 @@
         <v>76</v>
       </c>
       <c r="P5" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="Q5" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="R5" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>72</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
         <v>33</v>
@@ -1338,7 +1383,7 @@
         <v>59</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I6" t="s">
         <v>33</v>
@@ -1362,21 +1407,21 @@
         <v>76</v>
       </c>
       <c r="P6" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="Q6" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="R6" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>72</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
         <v>33</v>
@@ -1394,7 +1439,7 @@
         <v>59</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I7" t="s">
         <v>33</v>
@@ -1421,13 +1466,14 @@
         <v>34</v>
       </c>
       <c r="Q7" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="R7" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>